--- a/absorption and emission spectra/data.xlsx
+++ b/absorption and emission spectra/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER.DESKTOP-AET6VDV\Desktop\sem 5\optics lab\P_345-P_343-Laboratory-Resources\absorption and emission spectra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8806B08A-2550-4517-81CB-C829CA404E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63CA1E6-0DB2-4782-A4B3-04882E295023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -219,15 +219,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1765,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F86EA2F-0DC2-485B-BB18-0402204FD68E}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,8 +1829,8 @@
         <v>18</v>
       </c>
       <c r="H2">
-        <f>SQRT(B2*10^-10 * 6.626*10^-34 * 3* 10^8 * 0.0037/((C2*10^-10)^2) + ( 6.626*10^-34 * 3* 10^8 * 20.07*10^-10)/((C2*10^-10)^2))/(1.6*10^-10)</f>
-        <v>0.29301967334280687</v>
+        <f>SQRT((B2*10^-10 * 6.626*10^-34 * 3* 10^8 * 0.0037/((C2*10^-10)^2))^2 + (( 6.626*10^-34 * 3* 10^8 * 20.07*10^-10)/((C2*10^-10)^2))^2)/(1.6*10^-19)</f>
+        <v>9.7382750546143957E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1861,8 +1861,8 @@
         <v>63.005538619277047</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H32" si="3">SQRT(B3*10^-10 * 6.626*10^-34 * 3* 10^8 * 0.0037/((C3*10^-10)^2) + ( 6.626*10^-34 * 3* 10^8 * 20.07*10^-10)/((C3*10^-10)^2))/(1.6*10^-10)</f>
-        <v>0.29476302356454381</v>
+        <f t="shared" ref="H3:H32" si="3">SQRT((B3*10^-10 * 6.626*10^-34 * 3* 10^8 * 0.0037/((C3*10^-10)^2))^2 + (( 6.626*10^-34 * 3* 10^8 * 20.07*10^-10)/((C3*10^-10)^2))^2)/(1.6*10^-19)</f>
+        <v>9.8518034486855775E-3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>0.29653351020666974</v>
+        <v>9.9679179930074694E-3</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>0.29689092179784293</v>
+        <v>9.9914586062075234E-3</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>0.29905904564830538</v>
+        <v>1.0134984453506555E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>0.30089740333141607</v>
+        <v>1.0257656859382371E-2</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>0.30238927920170694</v>
+        <v>1.0357869424173877E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2082,11 +2082,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>0.30390039907175154</v>
+        <v>1.0459979650616923E-2</v>
       </c>
       <c r="J9">
         <f>SQRT(H2^2 + H32^2)</f>
-        <v>0.44317142079904825</v>
+        <v>1.585143145118445E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>0.30581695306892304</v>
+        <v>1.0590364209692659E-2</v>
       </c>
       <c r="L10">
         <f>2*L4*M7/O4</f>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>0.30737280719419779</v>
+        <v>1.0696934122453665E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>0.30855315726958654</v>
+        <v>1.077821733886597E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>0.30974524173274537</v>
+        <v>1.0860689301888951E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>0.31135325618324161</v>
+        <v>1.0972543805724084E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>0.31257343502371499</v>
+        <v>1.1057886560606276E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>0.31421959394217663</v>
+        <v>1.1173662584085033E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>0.31588818324891799</v>
+        <v>1.1291766840803491E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>0.31673103790376189</v>
+        <v>1.1351712715083473E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>0.31800619096063309</v>
+        <v>1.1442772631261165E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>0.31929457572655573</v>
+        <v>1.1535228084835522E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>0.32059640609921869</v>
+        <v>1.1629109303701613E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>0.32235347378077328</v>
+        <v>1.1756555926132659E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>0.32368753554352736</v>
+        <v>1.1853886208419305E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>0.32458478068521252</v>
+        <v>1.1919622476172556E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>0.32548840315131045</v>
+        <v>1.1986049958860948E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>0.32685594868227891</v>
+        <v>1.2087009632145984E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>0.32777582488341117</v>
+        <v>1.2155210310545806E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>0.32823824404404817</v>
+        <v>1.2189582917306886E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>0.32916809067812125</v>
+        <v>1.2258879456288205E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>0.33057552208013391</v>
+        <v>1.2364223336406174E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>0.33152236171503124</v>
+        <v>1.2435401757237396E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>0.33247613334963139</v>
+        <v>1.2507352957851416E-2</v>
       </c>
     </row>
   </sheetData>
